--- a/biology/Médecine/Hémoptysie/Hémoptysie.xlsx
+++ b/biology/Médecine/Hémoptysie/Hémoptysie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9moptysie</t>
+          <t>Hémoptysie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hémoptysie est un rejet, à l'occasion d'effort de toux, de sang provenant des voies aériennes sous-glottiques[1]. Ce sang est rouge, aéré (contrairement au sang de l'hématémèse qui est moins oxygéné et plus foncé), en quantité très variable en fonction des causes de l'hémoptysie. Ce symptôme peut témoigner de maladies sous-jacentes variées mais potentiellement graves, qu'il convient de ne jamais négliger : toute hémoptysie, quelle que soit son abondance, doit faire consulter un médecin au plus vite.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hémoptysie est un rejet, à l'occasion d'effort de toux, de sang provenant des voies aériennes sous-glottiques. Ce sang est rouge, aéré (contrairement au sang de l'hématémèse qui est moins oxygéné et plus foncé), en quantité très variable en fonction des causes de l'hémoptysie. Ce symptôme peut témoigner de maladies sous-jacentes variées mais potentiellement graves, qu'il convient de ne jamais négliger : toute hémoptysie, quelle que soit son abondance, doit faire consulter un médecin au plus vite.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9moptysie</t>
+          <t>Hémoptysie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La suspicion d'une hémoptysie doit faire répondre aux questions suivantes :
 S'agit-il bien d'une hémoptysie ? On éliminera un saignement d'origine buccale, nasale (épistaxis) ou digestive (hématémèse). Dans le cas d'hémorragies massives, la différence peut être délicate à faire et requérir des examens complémentaires en urgence ;
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9moptysie</t>
+          <t>Hémoptysie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,14 +562,16 @@
           <t>Examens complémentaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hémogramme, plaquettes, hémostase, groupe sanguin ABO + groupe rhésus.
 Recherche du bacille de Koch (agent infectieux responsable de la tuberculose) dans les expectorations.
 Radiographie du thorax.
 Fibroscopie bronchique.
 Scanner thoracique.
-Artériographie pulmonaire, indiquée uniquement dans le cadre d'une prise en charge thérapeutique[1].
+Artériographie pulmonaire, indiquée uniquement dans le cadre d'une prise en charge thérapeutique.
 Les autres examens sont demandés en fonction du contexte et de la cause suspectée de l'hémoptysie à la lumière de la clinique et des premiers examens.
 </t>
         </is>
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9moptysie</t>
+          <t>Hémoptysie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,12 +603,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Causes traumatiques
-Traumatisme ouvert ou fermé du thorax, le plus souvent dans un cadre de polytraumatisme
+          <t>Causes traumatiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Traumatisme ouvert ou fermé du thorax, le plus souvent dans un cadre de polytraumatisme
 Corps étranger intra-bronchique (chez l'enfant en particulier)
-l'utilisation de cannabis frauduleusement enrichi de verre pilé a été citée à plusieurs reprises dans les années 2000[2], dans le nord de la France et en Belgique notamment[3].
-Causes non traumatiques
-Mucoviscidose : risque majeur d'hémoptysie, lors de surinfections bronchiques et encombrement important
+l'utilisation de cannabis frauduleusement enrichi de verre pilé a été citée à plusieurs reprises dans les années 2000, dans le nord de la France et en Belgique notamment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hémoptysie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9moptysie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Causes non traumatiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mucoviscidose : risque majeur d'hémoptysie, lors de surinfections bronchiques et encombrement important
 Bronchite aiguë et pneumonies (rarement)
 Cancer broncho-pulmonaire : il doit toujours être évoqué, en particulier chez le fumeur
 Tuberculose pulmonaire active
@@ -609,41 +664,81 @@
 Embolie pulmonaire
 Anomalie vasculaire (angiome, maladie de Rendu-Osler, syndrome de Dieulafoy bronchique)
 Irradiations de rayons X de 8  à   10 Gy (forme pulmonaire)
-Consommation de cocaïne (pour 6 à 26 % des toxicomanes qui la consomment sous forme de crack[4])
+Consommation de cocaïne (pour 6 à 26 % des toxicomanes qui la consomment sous forme de crack)
 Textilome intra-thoracique (réaction inflammatoire provoquée par la présence d'un corps étranger textile (ex. : compresse) oublié lors d'une intervention chirurgicale, cette complication postopératoire  est assez peu fréquente).</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>H%C3%A9moptysie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hémoptysie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/H%C3%A9moptysie</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traitement étiologique
-Il est obligatoire dans tous les cas, et suffisant lorsque l'hémoptysie est minime ou modérée et bien tolérée, à condition d'instaurer une surveillance rigoureuse.
-Traitement des hémoptysies massives
-Il ne se conçoit qu'en service de réanimation. L'objectif est double : maintenir les fonctions vitales (en particulier respiratoire) et tarir le saignement.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Traitement étiologique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est obligatoire dans tous les cas, et suffisant lorsque l'hémoptysie est minime ou modérée et bien tolérée, à condition d'instaurer une surveillance rigoureuse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hémoptysie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9moptysie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Traitement des hémoptysies massives</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il ne se conçoit qu'en service de réanimation. L'objectif est double : maintenir les fonctions vitales (en particulier respiratoire) et tarir le saignement.
 Oxygénothérapie à débit adapté à la gazométrie artérielle afin de maintenir une saturation artérielle en oxygène supérieure à 90 %
 Perfusion de macromolécules (voir transfusion sanguine) en cas de défaillance hémodynamique
 Intubation trachéale et ventilation mécanique en cas de coma
